--- a/COVIDPPP/Zipregressors.xlsx
+++ b/COVIDPPP/Zipregressors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin\Gov50\pppdata\COVIDPPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C03A9-7FBC-4B45-8BBC-1DCEA5649365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D428FBB-7B22-4ABA-B4E1-BF1FDAE70694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AFADD8B4-DA0F-4AD7-B952-63B27F847954}"/>
   </bookViews>
@@ -244,9 +244,6 @@
     <t>republican_percent</t>
   </si>
   <si>
-    <t>Percent by which county voted Republican in the 2016 presidential election (Democratic values are negative)</t>
-  </si>
-  <si>
     <t>pop_den</t>
   </si>
   <si>
@@ -263,6 +260,9 @@
   </si>
   <si>
     <t>mean_end_deaths</t>
+  </si>
+  <si>
+    <t>Percent of voters who voted Republican in the county in 2016</t>
   </si>
 </sst>
 </file>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B217914-E4F4-4883-A30C-C8D30F0E09BD}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1057,17 +1057,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>37</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>38</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>39</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>40</v>
@@ -1107,10 +1107,10 @@
     </row>
     <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="105.6" x14ac:dyDescent="0.3">
@@ -1121,7 +1121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="132" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>62</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>64</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="132" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>65</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>21</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>

--- a/COVIDPPP/Zipregressors.xlsx
+++ b/COVIDPPP/Zipregressors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Justin\Gov50\pppdata\COVIDPPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D428FBB-7B22-4ABA-B4E1-BF1FDAE70694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD955113-35E3-452E-849F-5F030FA0015E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AFADD8B4-DA0F-4AD7-B952-63B27F847954}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
   <si>
     <t>Variable name</t>
   </si>
@@ -238,18 +238,12 @@
     <t xml:space="preserve">median_income </t>
   </si>
   <si>
-    <t>Number of banks per 10,000 people in the county</t>
-  </si>
-  <si>
     <t>republican_percent</t>
   </si>
   <si>
     <t>pop_den</t>
   </si>
   <si>
-    <t>Population density as calculated by the 2010 Census</t>
-  </si>
-  <si>
     <t>mean_start_cases</t>
   </si>
   <si>
@@ -262,14 +256,59 @@
     <t>mean_end_deaths</t>
   </si>
   <si>
-    <t>Percent of voters who voted Republican in the county in 2016</t>
+    <t>Demographic Variables</t>
+  </si>
+  <si>
+    <r>
+      <t>Percent of adult population with a high school degree</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Loan-specific Variables</t>
+  </si>
+  <si>
+    <t>Economic Variables</t>
+  </si>
+  <si>
+    <t>payroll</t>
+  </si>
+  <si>
+    <t>COVID-19 Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of banks per 10,000 people in the ZIP code </t>
+  </si>
+  <si>
+    <t>Total business payroll in 2016 (millions of dollars)</t>
+  </si>
+  <si>
+    <t>gdp</t>
+  </si>
+  <si>
+    <t>Percent of voters who voted Republican in the 2016 presidential election</t>
+  </si>
+  <si>
+    <t>Population density of the county</t>
+  </si>
+  <si>
+    <t>Total county GDP in 2017 (nominal, millions of dollars)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +329,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -299,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -320,11 +366,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -333,6 +401,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -649,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CAA409-C6EA-4FDE-A6B3-570889C837DD}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +735,7 @@
     <col min="2" max="2" width="64.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -677,255 +751,293 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>19</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="2" t="s">
         <v>49</v>
       </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A30:B30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -933,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B217914-E4F4-4883-A30C-C8D30F0E09BD}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,7 +1057,7 @@
     <col min="2" max="2" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -961,255 +1073,293 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="105.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="66" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="105.6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="38" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A30:B30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>